--- a/Table1/output/singleplot_statistics_DOGK18.xlsx
+++ b/Table1/output/singleplot_statistics_DOGK18.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="62">
   <si>
     <t>k</t>
   </si>
@@ -259,13 +259,3889 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -287,1009 +4163,1009 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="975">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="976">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="977">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="978">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" t="s" s="979">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" t="s" s="980">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" t="s" s="981">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" t="s" s="982">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" t="s" s="983">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" t="s" s="984">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" t="s" s="985">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" t="s" s="986">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" t="s" s="987">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" t="s" s="988">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="O1" t="s" s="989">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="P1" t="s" s="990">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="Q1" t="s" s="991">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="3">
+      <c r="A2" t="n" s="992">
         <v>18.0</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s" s="1010">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s" s="1028">
         <v>35</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" t="s" s="1046">
         <v>36</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" t="s" s="1064">
         <v>45</v>
       </c>
-      <c r="F2" t="n" s="3">
+      <c r="F2" t="n" s="1082">
         <v>2.4326023426337424</v>
       </c>
-      <c r="G2" t="n" s="3">
+      <c r="G2" t="n" s="1100">
         <v>0.8063367409701644</v>
       </c>
-      <c r="H2" t="n" s="3">
+      <c r="H2" t="n" s="1118">
         <v>0.6696186143093393</v>
       </c>
-      <c r="I2" t="n" s="3">
+      <c r="I2" t="n" s="1136">
         <v>0.0790015015173466</v>
       </c>
-      <c r="J2" t="n" s="3">
+      <c r="J2" t="n" s="1154">
         <v>-2.2471503592924127</v>
       </c>
-      <c r="K2" t="n" s="3">
+      <c r="K2" t="n" s="1172">
         <v>0.17403850948609229</v>
       </c>
-      <c r="L2" t="n" s="3">
+      <c r="L2" t="n" s="1190">
         <v>0.04392108143018244</v>
       </c>
-      <c r="M2" t="n" s="3">
+      <c r="M2" t="n" s="1208">
         <v>0.0044146113675771525</v>
       </c>
-      <c r="N2" t="n" s="3">
+      <c r="N2" t="n" s="1226">
         <v>0.026700783409679196</v>
       </c>
-      <c r="O2" t="n" s="3">
+      <c r="O2" t="n" s="1244">
         <v>0.004972094738861692</v>
       </c>
-      <c r="P2" t="s" s="2">
+      <c r="P2" t="s" s="1262">
         <v>54</v>
       </c>
-      <c r="Q2" t="n" s="3">
+      <c r="Q2" t="n" s="1280">
         <v>0.31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="3">
+      <c r="A3" t="n" s="993">
         <v>17.0</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="1011">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="1029">
         <v>35</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="1047">
         <v>36</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="1065">
         <v>45</v>
       </c>
-      <c r="F3" t="n" s="3">
+      <c r="F3" t="n" s="1083">
         <v>2.6437095806312847</v>
       </c>
-      <c r="G3" t="n" s="3">
+      <c r="G3" t="n" s="1101">
         <v>0.6047692415612755</v>
       </c>
-      <c r="H3" t="n" s="3">
+      <c r="H3" t="n" s="1119">
         <v>0.598794185565833</v>
       </c>
-      <c r="I3" t="n" s="3">
+      <c r="I3" t="n" s="1137">
         <v>0.058206007449152206</v>
       </c>
-      <c r="J3" t="n" s="3">
+      <c r="J3" t="n" s="1155">
         <v>-2.06968973989001</v>
       </c>
-      <c r="K3" t="n" s="3">
+      <c r="K3" t="n" s="1173">
         <v>0.10899405420691824</v>
       </c>
-      <c r="L3" t="n" s="3">
+      <c r="L3" t="n" s="1191">
         <v>0.03807415657305059</v>
       </c>
-      <c r="M3" t="n" s="3">
+      <c r="M3" t="n" s="1209">
         <v>0.0030091302110349235</v>
       </c>
-      <c r="N3" t="n" s="3">
+      <c r="N3" t="n" s="1227">
         <v>0.023817213037108178</v>
       </c>
-      <c r="O3" t="n" s="3">
+      <c r="O3" t="n" s="1245">
         <v>0.00327216845995653</v>
       </c>
-      <c r="P3" t="s" s="2">
+      <c r="P3" t="s" s="1263">
         <v>54</v>
       </c>
-      <c r="Q3" t="n" s="3">
+      <c r="Q3" t="n" s="1281">
         <v>0.31</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="3">
+      <c r="A4" t="n" s="994">
         <v>16.0</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" t="s" s="1012">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" t="s" s="1030">
         <v>35</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s" s="1048">
         <v>37</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" t="s" s="1066">
         <v>46</v>
       </c>
-      <c r="F4" t="n" s="3">
+      <c r="F4" t="n" s="1084">
         <v>2.07116359869507</v>
       </c>
-      <c r="G4" t="n" s="3">
+      <c r="G4" t="n" s="1102">
         <v>0.23385691609997591</v>
       </c>
-      <c r="H4" t="n" s="3">
+      <c r="H4" t="n" s="1120">
         <v>0.8901702035132422</v>
       </c>
-      <c r="I4" t="n" s="3">
+      <c r="I4" t="n" s="1138">
         <v>0.04368701879974725</v>
       </c>
-      <c r="J4" t="n" s="3">
+      <c r="J4" t="n" s="1156">
         <v>-0.6402584842006289</v>
       </c>
-      <c r="K4" t="n" s="3">
+      <c r="K4" t="n" s="1174">
         <v>0.029199981064857987</v>
       </c>
-      <c r="L4" t="n" s="3">
+      <c r="L4" t="n" s="1192">
         <v>8.339774940575685E-5</v>
       </c>
-      <c r="M4" t="n" s="3">
+      <c r="M4" t="n" s="1210">
         <v>5.448901731829851E-6</v>
       </c>
-      <c r="N4" t="n" s="3">
+      <c r="N4" t="n" s="1228">
         <v>9.778100096207045E-5</v>
       </c>
-      <c r="O4" t="n" s="3">
+      <c r="O4" t="n" s="1246">
         <v>6.215785541402892E-6</v>
       </c>
-      <c r="P4" t="s" s="2">
+      <c r="P4" t="s" s="1264">
         <v>55</v>
       </c>
-      <c r="Q4" t="n" s="3">
+      <c r="Q4" t="n" s="1282">
         <v>0.0025</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="3">
+      <c r="A5" t="n" s="995">
         <v>15.0</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="1013">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="1031">
         <v>35</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="1049">
         <v>37</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="1067">
         <v>46</v>
       </c>
-      <c r="F5" t="n" s="3">
+      <c r="F5" t="n" s="1085">
         <v>1.417570410458448</v>
       </c>
-      <c r="G5" t="n" s="3">
+      <c r="G5" t="n" s="1103">
         <v>0.6633227999010844</v>
       </c>
-      <c r="H5" t="n" s="3">
+      <c r="H5" t="n" s="1121">
         <v>0.7519990754349126</v>
       </c>
-      <c r="I5" t="n" s="3">
+      <c r="I5" t="n" s="1139">
         <v>0.1726307569564869</v>
       </c>
-      <c r="J5" t="n" s="3">
+      <c r="J5" t="n" s="1157">
         <v>-0.8722731570853635</v>
       </c>
-      <c r="K5" t="n" s="3">
+      <c r="K5" t="n" s="1175">
         <v>0.09598075966423525</v>
       </c>
-      <c r="L5" t="n" s="3">
+      <c r="L5" t="n" s="1193">
         <v>4.413035339447507E-4</v>
       </c>
-      <c r="M5" t="n" s="3">
+      <c r="M5" t="n" s="1211">
         <v>1.0738221645437818E-4</v>
       </c>
-      <c r="N5" t="n" s="3">
+      <c r="N5" t="n" s="1229">
         <v>3.9745021019362546E-4</v>
       </c>
-      <c r="O5" t="n" s="3">
+      <c r="O5" t="n" s="1247">
         <v>1.0475728705542968E-4</v>
       </c>
-      <c r="P5" t="s" s="2">
+      <c r="P5" t="s" s="1265">
         <v>55</v>
       </c>
-      <c r="Q5" t="n" s="3">
+      <c r="Q5" t="n" s="1283">
         <v>0.039</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="3">
+      <c r="A6" t="n" s="996">
         <v>14.0</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" t="s" s="1014">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" t="s" s="1032">
         <v>35</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" t="s" s="1050">
         <v>38</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" t="s" s="1068">
         <v>47</v>
       </c>
-      <c r="F6" t="n" s="3">
+      <c r="F6" t="n" s="1086">
         <v>1.6932849055181758</v>
       </c>
-      <c r="G6" t="n" s="3">
+      <c r="G6" t="n" s="1104">
         <v>0.2077454267597713</v>
       </c>
-      <c r="H6" t="n" s="3">
+      <c r="H6" t="n" s="1122">
         <v>0.7042051182474393</v>
       </c>
-      <c r="I6" t="n" s="3">
+      <c r="I6" t="n" s="1140">
         <v>0.05086492401364584</v>
       </c>
-      <c r="J6" t="n" s="3">
+      <c r="J6" t="n" s="1158">
         <v>-0.7448469135189488</v>
       </c>
-      <c r="K6" t="n" s="3">
+      <c r="K6" t="n" s="1176">
         <v>0.03333466751783416</v>
       </c>
-      <c r="L6" t="n" s="3">
+      <c r="L6" t="n" s="1194">
         <v>2.2776822162345087E-4</v>
       </c>
-      <c r="M6" t="n" s="3">
+      <c r="M6" t="n" s="1212">
         <v>1.9572801085368466E-5</v>
       </c>
-      <c r="N6" t="n" s="3">
+      <c r="N6" t="n" s="1230">
         <v>2.2034452281324525E-4</v>
       </c>
-      <c r="O6" t="n" s="3">
+      <c r="O6" t="n" s="1248">
         <v>1.8950817898072067E-5</v>
       </c>
-      <c r="P6" t="s" s="2">
+      <c r="P6" t="s" s="1266">
         <v>56</v>
       </c>
-      <c r="Q6" t="n" s="3">
+      <c r="Q6" t="n" s="1284">
         <v>0.0098</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="3">
+      <c r="A7" t="n" s="997">
         <v>13.0</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" t="s" s="1015">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="1033">
         <v>35</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="1051">
         <v>38</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" t="s" s="1069">
         <v>47</v>
       </c>
-      <c r="F7" t="n" s="3">
+      <c r="F7" t="n" s="1087">
         <v>1.5778989243062185</v>
       </c>
-      <c r="G7" t="n" s="3">
+      <c r="G7" t="n" s="1105">
         <v>0.6866557232940486</v>
       </c>
-      <c r="H7" t="n" s="3">
+      <c r="H7" t="n" s="1123">
         <v>0.8009416467541074</v>
       </c>
-      <c r="I7" t="n" s="3">
+      <c r="I7" t="n" s="1141">
         <v>0.08284116796540442</v>
       </c>
-      <c r="J7" t="n" s="3">
+      <c r="J7" t="n" s="1159">
         <v>-0.45696970557784244</v>
       </c>
-      <c r="K7" t="n" s="3">
+      <c r="K7" t="n" s="1177">
         <v>0.08573292138884257</v>
       </c>
-      <c r="L7" t="n" s="3">
+      <c r="L7" t="n" s="1195">
         <v>2.810362698310768E-4</v>
       </c>
-      <c r="M7" t="n" s="3">
+      <c r="M7" t="n" s="1213">
         <v>6.212099582680216E-5</v>
       </c>
-      <c r="N7" t="n" s="3">
+      <c r="N7" t="n" s="1231">
         <v>4.010668754394046E-4</v>
       </c>
-      <c r="O7" t="n" s="3">
+      <c r="O7" t="n" s="1249">
         <v>1.2588773481772951E-4</v>
       </c>
-      <c r="P7" t="s" s="2">
+      <c r="P7" t="s" s="1267">
         <v>56</v>
       </c>
-      <c r="Q7" t="n" s="3">
+      <c r="Q7" t="n" s="1285">
         <v>0.02</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="3">
+      <c r="A8" t="n" s="998">
         <v>12.0</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" t="s" s="1016">
         <v>23</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" t="s" s="1034">
         <v>35</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" t="s" s="1052">
         <v>39</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" t="s" s="1070">
         <v>48</v>
       </c>
-      <c r="F8" t="n" s="3">
+      <c r="F8" t="n" s="1088">
         <v>1.5398574618880398</v>
       </c>
-      <c r="G8" t="n" s="3">
+      <c r="G8" t="n" s="1106">
         <v>0.28487314173931577</v>
       </c>
-      <c r="H8" t="n" s="3">
+      <c r="H8" t="n" s="1124">
         <v>0.8490213324423348</v>
       </c>
-      <c r="I8" t="n" s="3">
+      <c r="I8" t="n" s="1142">
         <v>0.03138702486918347</v>
       </c>
-      <c r="J8" t="n" s="3">
+      <c r="J8" t="n" s="1160">
         <v>-0.11555183717474359</v>
       </c>
-      <c r="K8" t="n" s="3">
+      <c r="K8" t="n" s="1178">
         <v>0.04037527562436435</v>
       </c>
-      <c r="L8" t="n" s="3">
+      <c r="L8" t="n" s="1196">
         <v>0.10316551098076893</v>
       </c>
-      <c r="M8" t="n" s="3">
+      <c r="M8" t="n" s="1214">
         <v>0.012585377274274591</v>
       </c>
-      <c r="N8" t="n" s="3">
+      <c r="N8" t="n" s="1232">
         <v>0.3767179391369022</v>
       </c>
-      <c r="O8" t="n" s="3">
+      <c r="O8" t="n" s="1250">
         <v>0.10989846287705037</v>
       </c>
-      <c r="P8" t="s" s="2">
+      <c r="P8" t="s" s="1268">
         <v>54</v>
       </c>
-      <c r="Q8" t="n" s="3">
+      <c r="Q8" t="n" s="1286">
         <v>2.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="3">
+      <c r="A9" t="n" s="999">
         <v>11.0</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="1017">
         <v>24</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" t="s" s="1035">
         <v>35</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" t="s" s="1053">
         <v>39</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="1071">
         <v>48</v>
       </c>
-      <c r="F9" t="n" s="3">
+      <c r="F9" t="n" s="1089">
         <v>2.0369608456390504</v>
       </c>
-      <c r="G9" t="n" s="3">
+      <c r="G9" t="n" s="1107">
         <v>0.4301611637970563</v>
       </c>
-      <c r="H9" t="n" s="3">
+      <c r="H9" t="n" s="1125">
         <v>0.6087784648823088</v>
       </c>
-      <c r="I9" t="n" s="3">
+      <c r="I9" t="n" s="1143">
         <v>0.017357363155015584</v>
       </c>
-      <c r="J9" t="n" s="3">
+      <c r="J9" t="n" s="1161">
         <v>-0.0962830150659012</v>
       </c>
-      <c r="K9" t="n" s="3">
+      <c r="K9" t="n" s="1179">
         <v>0.034317669282293364</v>
       </c>
-      <c r="L9" t="n" s="3">
+      <c r="L9" t="n" s="1197">
         <v>0.23300230433433652</v>
       </c>
-      <c r="M9" t="n" s="3">
+      <c r="M9" t="n" s="1215">
         <v>0.024507972078130852</v>
       </c>
-      <c r="N9" t="n" s="3">
+      <c r="N9" t="n" s="1233">
         <v>0.5761674584706548</v>
       </c>
-      <c r="O9" t="n" s="3">
+      <c r="O9" t="n" s="1251">
         <v>0.14609247030694716</v>
       </c>
-      <c r="P9" t="s" s="2">
+      <c r="P9" t="s" s="1269">
         <v>54</v>
       </c>
-      <c r="Q9" t="n" s="3">
+      <c r="Q9" t="n" s="1287">
         <v>2.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="3">
+      <c r="A10" t="n" s="1000">
         <v>10.0</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="1018">
         <v>25</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" t="s" s="1036">
         <v>35</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" t="s" s="1054">
         <v>40</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="1072">
         <v>49</v>
       </c>
-      <c r="F10" t="n" s="3">
+      <c r="F10" t="n" s="1090">
         <v>0.8225809946308409</v>
       </c>
-      <c r="G10" t="n" s="3">
+      <c r="G10" t="n" s="1108">
         <v>0.12304445191374329</v>
       </c>
-      <c r="H10" t="n" s="3">
+      <c r="H10" t="n" s="1126">
         <v>0.8609790118430682</v>
       </c>
-      <c r="I10" t="n" s="3">
+      <c r="I10" t="n" s="1144">
         <v>0.20425989193464192</v>
       </c>
-      <c r="J10" t="n" s="3">
+      <c r="J10" t="n" s="1162">
         <v>-205.8879584838627</v>
       </c>
-      <c r="K10" t="n" s="3">
+      <c r="K10" t="n" s="1180">
         <v>848.0235844272179</v>
       </c>
-      <c r="L10" t="n" s="3">
+      <c r="L10" t="n" s="1198">
         <v>118.87146624837361</v>
       </c>
-      <c r="M10" t="n" s="3">
+      <c r="M10" t="n" s="1216">
         <v>657.9163654002974</v>
       </c>
-      <c r="N10" t="n" s="3">
+      <c r="N10" t="n" s="1234">
         <v>0.15254599656730414</v>
       </c>
-      <c r="O10" t="n" s="3">
+      <c r="O10" t="n" s="1252">
         <v>0.7554984158608169</v>
       </c>
-      <c r="P10" t="s" s="2">
+      <c r="P10" t="s" s="1270">
         <v>57</v>
       </c>
-      <c r="Q10" t="n" s="3">
+      <c r="Q10" t="n" s="1288">
         <v>2.5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n" s="3">
+      <c r="A11" t="n" s="1001">
         <v>9.0</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="1019">
         <v>26</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="1037">
         <v>35</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="1055">
         <v>40</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="1073">
         <v>49</v>
       </c>
-      <c r="F11" t="n" s="3">
+      <c r="F11" t="n" s="1091">
         <v>1.1694812632143592</v>
       </c>
-      <c r="G11" t="n" s="3">
+      <c r="G11" t="n" s="1109">
         <v>0.2769713943785813</v>
       </c>
-      <c r="H11" t="n" s="3">
+      <c r="H11" t="n" s="1127">
         <v>0.9578873113289705</v>
       </c>
-      <c r="I11" t="n" s="3">
+      <c r="I11" t="n" s="1145">
         <v>0.1876201412455221</v>
       </c>
-      <c r="J11" t="n" s="3">
+      <c r="J11" t="n" s="1163">
         <v>-7.9550786438154235</v>
       </c>
-      <c r="K11" t="n" s="3">
+      <c r="K11" t="n" s="1181">
         <v>1.6048471954191925</v>
       </c>
-      <c r="L11" t="n" s="3">
+      <c r="L11" t="n" s="1199">
         <v>1.2937331417054017</v>
       </c>
-      <c r="M11" t="n" s="3">
+      <c r="M11" t="n" s="1217">
         <v>0.5130358542868628</v>
       </c>
-      <c r="N11" t="n" s="3">
+      <c r="N11" t="n" s="1235">
         <v>0.2117112755687006</v>
       </c>
-      <c r="O11" t="n" s="3">
+      <c r="O11" t="n" s="1253">
         <v>0.047370744189545455</v>
       </c>
-      <c r="P11" t="s" s="2">
+      <c r="P11" t="s" s="1271">
         <v>57</v>
       </c>
-      <c r="Q11" t="n" s="3">
+      <c r="Q11" t="n" s="1289">
         <v>5.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="3">
+      <c r="A12" t="n" s="1002">
         <v>8.0</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="1020">
         <v>27</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="1038">
         <v>35</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="1056">
         <v>41</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="1074">
         <v>50</v>
       </c>
-      <c r="F12" t="n" s="3">
+      <c r="F12" t="n" s="1092">
         <v>1.1853945304548323</v>
       </c>
-      <c r="G12" t="n" s="3">
+      <c r="G12" t="n" s="1110">
         <v>0.28531235245590725</v>
       </c>
-      <c r="H12" t="n" s="3">
+      <c r="H12" t="n" s="1128">
         <v>0.7709379991617425</v>
       </c>
-      <c r="I12" t="n" s="3">
+      <c r="I12" t="n" s="1146">
         <v>0.15483398297916864</v>
       </c>
-      <c r="J12" t="n" s="3">
+      <c r="J12" t="n" s="1164">
         <v>-2.059549567030292</v>
       </c>
-      <c r="K12" t="n" s="3">
+      <c r="K12" t="n" s="1182">
         <v>0.18344733361946414</v>
       </c>
-      <c r="L12" t="n" s="3">
+      <c r="L12" t="n" s="1200">
         <v>0.012202098335664659</v>
       </c>
-      <c r="M12" t="n" s="3">
+      <c r="M12" t="n" s="1218">
         <v>0.002425655138961169</v>
       </c>
-      <c r="N12" t="n" s="3">
+      <c r="N12" t="n" s="1236">
         <v>0.005326297730422809</v>
       </c>
-      <c r="O12" t="n" s="3">
+      <c r="O12" t="n" s="1254">
         <v>0.0013014083640667206</v>
       </c>
-      <c r="P12" t="s" s="2">
+      <c r="P12" t="s" s="1272">
         <v>58</v>
       </c>
-      <c r="Q12" t="n" s="3">
+      <c r="Q12" t="n" s="1290">
         <v>0.31</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n" s="3">
+      <c r="A13" t="n" s="1003">
         <v>7.0</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="1021">
         <v>28</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="1039">
         <v>35</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="1057">
         <v>41</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="1075">
         <v>50</v>
       </c>
-      <c r="F13" t="n" s="3">
+      <c r="F13" t="n" s="1093">
         <v>1.0129034296059585</v>
       </c>
-      <c r="G13" t="n" s="3">
+      <c r="G13" t="n" s="1111">
         <v>0.18880040529605666</v>
       </c>
-      <c r="H13" t="n" s="3">
+      <c r="H13" t="n" s="1129">
         <v>1.0469700418557886</v>
       </c>
-      <c r="I13" t="n" s="3">
+      <c r="I13" t="n" s="1147">
         <v>0.11076084199574521</v>
       </c>
-      <c r="J13" t="n" s="3">
+      <c r="J13" t="n" s="1165">
         <v>-1.1490901444267803</v>
       </c>
-      <c r="K13" t="n" s="3">
+      <c r="K13" t="n" s="1183">
         <v>0.09341537476119431</v>
       </c>
-      <c r="L13" t="n" s="3">
+      <c r="L13" t="n" s="1201">
         <v>0.003228008529695333</v>
       </c>
-      <c r="M13" t="n" s="3">
+      <c r="M13" t="n" s="1219">
         <v>6.007829547990083E-4</v>
       </c>
-      <c r="N13" t="n" s="3">
+      <c r="N13" t="n" s="1237">
         <v>0.002944623266331315</v>
       </c>
-      <c r="O13" t="n" s="3">
+      <c r="O13" t="n" s="1255">
         <v>5.456757294049026E-4</v>
       </c>
-      <c r="P13" t="s" s="2">
+      <c r="P13" t="s" s="1273">
         <v>58</v>
       </c>
-      <c r="Q13" t="n" s="3">
+      <c r="Q13" t="n" s="1291">
         <v>0.31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n" s="3">
+      <c r="A14" t="n" s="1004">
         <v>6.0</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="1022">
         <v>29</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="1040">
         <v>35</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="1058">
         <v>42</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="1076">
         <v>51</v>
       </c>
-      <c r="F14" t="n" s="3">
+      <c r="F14" t="n" s="1094">
         <v>2.411539318785547</v>
       </c>
-      <c r="G14" t="n" s="3">
+      <c r="G14" t="n" s="1112">
         <v>0.11013793558195366</v>
       </c>
-      <c r="H14" t="n" s="3">
+      <c r="H14" t="n" s="1130">
         <v>0.7553762982049715</v>
       </c>
-      <c r="I14" t="n" s="3">
+      <c r="I14" t="n" s="1148">
         <v>0.04193409178457412</v>
       </c>
-      <c r="J14" t="n" s="3">
+      <c r="J14" t="n" s="1166">
         <v>-10.296232376306689</v>
       </c>
-      <c r="K14" t="n" s="3">
+      <c r="K14" t="n" s="1184">
         <v>0.21574495502651445</v>
       </c>
-      <c r="L14" t="n" s="3">
+      <c r="L14" t="n" s="1202">
         <v>16.677472902178803</v>
       </c>
-      <c r="M14" t="n" s="3">
+      <c r="M14" t="n" s="1220">
         <v>0.45700880941208627</v>
       </c>
-      <c r="N14" t="n" s="3">
+      <c r="N14" t="n" s="1238">
         <v>5.6451778304118445</v>
       </c>
-      <c r="O14" t="n" s="3">
+      <c r="O14" t="n" s="1256">
         <v>0.21810076501937004</v>
       </c>
-      <c r="P14" t="s" s="2">
+      <c r="P14" t="s" s="1274">
         <v>59</v>
       </c>
-      <c r="Q14" t="n" s="3">
+      <c r="Q14" t="n" s="1292">
         <v>50.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="3">
+      <c r="A15" t="n" s="1005">
         <v>5.0</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="1023">
         <v>30</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="1041">
         <v>35</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="1059">
         <v>42</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="1077">
         <v>51</v>
       </c>
-      <c r="F15" t="n" s="3">
+      <c r="F15" t="n" s="1095">
         <v>1.613632251101385</v>
       </c>
-      <c r="G15" t="n" s="3">
+      <c r="G15" t="n" s="1113">
         <v>0.3345770690040152</v>
       </c>
-      <c r="H15" t="n" s="3">
+      <c r="H15" t="n" s="1131">
         <v>0.7119901652245935</v>
       </c>
-      <c r="I15" t="n" s="3">
+      <c r="I15" t="n" s="1149">
         <v>0.22004885727162665</v>
       </c>
-      <c r="J15" t="n" s="3">
+      <c r="J15" t="n" s="1167">
         <v>-8.936918003518436</v>
       </c>
-      <c r="K15" t="n" s="3">
+      <c r="K15" t="n" s="1185">
         <v>0.9621106275314766</v>
       </c>
-      <c r="L15" t="n" s="3">
+      <c r="L15" t="n" s="1203">
         <v>22.463385215090835</v>
       </c>
-      <c r="M15" t="n" s="3">
+      <c r="M15" t="n" s="1221">
         <v>4.250523554384579</v>
       </c>
-      <c r="N15" t="n" s="3">
+      <c r="N15" t="n" s="1239">
         <v>4.683606752923479</v>
       </c>
-      <c r="O15" t="n" s="3">
+      <c r="O15" t="n" s="1257">
         <v>1.2304006547411421</v>
       </c>
-      <c r="P15" t="s" s="2">
+      <c r="P15" t="s" s="1275">
         <v>59</v>
       </c>
-      <c r="Q15" t="n" s="3">
+      <c r="Q15" t="n" s="1293">
         <v>100.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n" s="3">
+      <c r="A16" t="n" s="1006">
         <v>4.0</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="1024">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="1042">
         <v>35</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="1060">
         <v>43</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="1078">
         <v>52</v>
       </c>
-      <c r="F16" t="n" s="3">
+      <c r="F16" t="n" s="1096">
         <v>1.1424490659120803</v>
       </c>
-      <c r="G16" t="n" s="3">
+      <c r="G16" t="n" s="1114">
         <v>0.19339624405722478</v>
       </c>
-      <c r="H16" t="n" s="3">
+      <c r="H16" t="n" s="1132">
         <v>0.7247106805846982</v>
       </c>
-      <c r="I16" t="n" s="3">
+      <c r="I16" t="n" s="1150">
         <v>0.029251899914504213</v>
       </c>
-      <c r="J16" t="n" s="3">
+      <c r="J16" t="n" s="1168">
         <v>-0.24540204000870647</v>
       </c>
-      <c r="K16" t="n" s="3">
+      <c r="K16" t="n" s="1186">
         <v>0.05255053188568291</v>
       </c>
-      <c r="L16" t="n" s="3">
+      <c r="L16" t="n" s="1204">
         <v>0.12632258360163598</v>
       </c>
-      <c r="M16" t="n" s="3">
+      <c r="M16" t="n" s="1222">
         <v>0.020260746440249364</v>
       </c>
-      <c r="N16" t="n" s="3">
+      <c r="N16" t="n" s="1240">
         <v>0.32593324983921546</v>
       </c>
-      <c r="O16" t="n" s="3">
+      <c r="O16" t="n" s="1258">
         <v>0.08604644239262811</v>
       </c>
-      <c r="P16" t="s" s="2">
+      <c r="P16" t="s" s="1276">
         <v>60</v>
       </c>
-      <c r="Q16" t="n" s="3">
+      <c r="Q16" t="n" s="1294">
         <v>2.5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n" s="3">
+      <c r="A17" t="n" s="1007">
         <v>3.0</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="1025">
         <v>32</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="1043">
         <v>35</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="1061">
         <v>43</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="1079">
         <v>52</v>
       </c>
-      <c r="F17" t="n" s="3">
+      <c r="F17" t="n" s="1097">
         <v>0.9012404394928407</v>
       </c>
-      <c r="G17" t="n" s="3">
+      <c r="G17" t="n" s="1115">
         <v>0.16537131125033208</v>
       </c>
-      <c r="H17" t="n" s="3">
+      <c r="H17" t="n" s="1133">
         <v>0.8289118522116207</v>
       </c>
-      <c r="I17" t="n" s="3">
+      <c r="I17" t="n" s="1151">
         <v>0.04077260313515606</v>
       </c>
-      <c r="J17" t="n" s="3">
+      <c r="J17" t="n" s="1169">
         <v>-0.13310285707597405</v>
       </c>
-      <c r="K17" t="n" s="3">
+      <c r="K17" t="n" s="1187">
         <v>0.06860413041871768</v>
       </c>
-      <c r="L17" t="n" s="3">
+      <c r="L17" t="n" s="1205">
         <v>0.09287235280244277</v>
       </c>
-      <c r="M17" t="n" s="3">
+      <c r="M17" t="n" s="1223">
         <v>0.023899655858469534</v>
       </c>
-      <c r="N17" t="n" s="3">
+      <c r="N17" t="n" s="1241">
         <v>0.7067251572185894</v>
       </c>
-      <c r="O17" t="n" s="3">
+      <c r="O17" t="n" s="1259">
         <v>0.37214337599684033</v>
       </c>
-      <c r="P17" t="s" s="2">
+      <c r="P17" t="s" s="1277">
         <v>60</v>
       </c>
-      <c r="Q17" t="n" s="3">
+      <c r="Q17" t="n" s="1295">
         <v>2.5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="3">
+      <c r="A18" t="n" s="1008">
         <v>2.0</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="1026">
         <v>33</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="1044">
         <v>35</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="1062">
         <v>44</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="1080">
         <v>53</v>
       </c>
-      <c r="F18" t="n" s="3">
+      <c r="F18" t="n" s="1098">
         <v>1.040084270271096</v>
       </c>
-      <c r="G18" t="n" s="3">
+      <c r="G18" t="n" s="1116">
         <v>0.20960023892150112</v>
       </c>
-      <c r="H18" t="n" s="3">
+      <c r="H18" t="n" s="1134">
         <v>0.9758989254345392</v>
       </c>
-      <c r="I18" t="n" s="3">
+      <c r="I18" t="n" s="1152">
         <v>0.24646597756455593</v>
       </c>
-      <c r="J18" t="n" s="3">
+      <c r="J18" t="n" s="1170">
         <v>-7.344843891614913</v>
       </c>
-      <c r="K18" t="n" s="3">
+      <c r="K18" t="n" s="1188">
         <v>0.699678083016159</v>
       </c>
-      <c r="L18" t="n" s="3">
+      <c r="L18" t="n" s="1206">
         <v>0.011971983859605507</v>
       </c>
-      <c r="M18" t="n" s="3">
+      <c r="M18" t="n" s="1224">
         <v>0.0027445619138714537</v>
       </c>
-      <c r="N18" t="n" s="3">
+      <c r="N18" t="n" s="1242">
         <v>0.0017193773914434085</v>
       </c>
-      <c r="O18" t="n" s="3">
+      <c r="O18" t="n" s="1260">
         <v>5.148579785663657E-4</v>
       </c>
-      <c r="P18" t="s" s="2">
+      <c r="P18" t="s" s="1278">
         <v>61</v>
       </c>
-      <c r="Q18" t="n" s="3">
+      <c r="Q18" t="n" s="1296">
         <v>0.16</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n" s="3">
+      <c r="A19" t="n" s="1009">
         <v>1.0</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="1027">
         <v>34</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="1045">
         <v>35</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="1063">
         <v>44</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="1081">
         <v>53</v>
       </c>
-      <c r="F19" t="n" s="3">
+      <c r="F19" t="n" s="1099">
         <v>1.1864267094396994</v>
       </c>
-      <c r="G19" t="n" s="3">
+      <c r="G19" t="n" s="1117">
         <v>0.293343920032198</v>
       </c>
-      <c r="H19" t="n" s="3">
+      <c r="H19" t="n" s="1135">
         <v>0.4285571834899079</v>
       </c>
-      <c r="I19" t="n" s="3">
+      <c r="I19" t="n" s="1153">
         <v>0.2852806753275432</v>
       </c>
-      <c r="J19" t="n" s="3">
+      <c r="J19" t="n" s="1171">
         <v>-10.404417145840101</v>
       </c>
-      <c r="K19" t="n" s="3">
+      <c r="K19" t="n" s="1189">
         <v>1.2668238360835895</v>
       </c>
-      <c r="L19" t="n" s="3">
+      <c r="L19" t="n" s="1207">
         <v>0.026590657475473695</v>
       </c>
-      <c r="M19" t="n" s="3">
+      <c r="M19" t="n" s="1225">
         <v>0.0066048136574054835</v>
       </c>
-      <c r="N19" t="n" s="3">
+      <c r="N19" t="n" s="1243">
         <v>0.0018079318224327684</v>
       </c>
-      <c r="O19" t="n" s="3">
+      <c r="O19" t="n" s="1261">
         <v>9.292489769335786E-4</v>
       </c>
-      <c r="P19" t="s" s="2">
+      <c r="P19" t="s" s="1279">
         <v>61</v>
       </c>
-      <c r="Q19" t="n" s="3">
+      <c r="Q19" t="n" s="1297">
         <v>0.16</v>
       </c>
     </row>
